--- a/products/4.xlsx
+++ b/products/4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,16 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Требуется КУРЬЕР </t>
   </si>
+  <si>
+    <t xml:space="preserve">Бельгийский шоколад 2 плитки </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +152,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -358,19 +363,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,6 +384,17 @@
       </c>
       <c r="C1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4250</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -388,12 +404,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -401,12 +417,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/products/4.xlsx
+++ b/products/4.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Требуется КУРЬЕР </t>
   </si>
   <si>
     <t xml:space="preserve">Бельгийский шоколад 2 плитки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бельгийский шоколад 3 плитки </t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +394,21 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4250</v>
+        <v>2600</v>
       </c>
       <c r="C2">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3750</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
